--- a/素材/Excel/example.xlsx
+++ b/素材/Excel/example.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10412"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhou/Code/PythonProject/PAT/素材/Excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1AF8D5-5222-454D-B365-CBABAE65D3DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="96" windowWidth="9540" windowHeight="4512"/>
+    <workbookView xWindow="10000" yWindow="2020" windowWidth="15480" windowHeight="13160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +25,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Apples</t>
-  </si>
-  <si>
-    <t>Cherries</t>
   </si>
   <si>
     <t>Pears</t>
@@ -35,16 +38,20 @@
   <si>
     <t>Strawberries</t>
   </si>
+  <si>
+    <t>Cherries</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -53,6 +60,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,7 +102,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -96,12 +110,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -143,7 +160,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,9 +193,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,6 +245,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -386,19 +437,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="1">
         <v>42099.565300925926</v>
       </c>
@@ -409,40 +461,40 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15">
       <c r="A2" s="1">
         <v>42099.153738425928</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15">
       <c r="A3" s="1">
         <v>42100.532534722224</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15">
       <c r="A4" s="1">
         <v>42102.374803240738</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15">
       <c r="A5" s="1">
         <v>42104.088194444441</v>
       </c>
@@ -453,54 +505,57 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15">
       <c r="A6" s="1">
         <v>42104.757372685184</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15">
       <c r="A7" s="1">
         <v>42104.111643518518</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3">
         <v>98</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>